--- a/src/analysis_examples/circadb/results_lomb/cosinor_10446965_rasgrp3_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10446965_rasgrp3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3143929187766266, 0.4085617736095069]</t>
+          <t>[0.315022441273111, 0.4079322511130225]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.210764987215953e-13</v>
+        <v>2.469136006766348e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>3.210764987215953e-13</v>
+        <v>2.469136006766348e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.25789495639231</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.46741575626421705, 0.5219191673480391]</t>
+          <t>[0.4673974468921738, 0.5219374767200824]</t>
         </is>
       </c>
       <c r="U2" t="n">
